--- a/export_pr1.xlsx
+++ b/export_pr1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>Appendix 60</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Office/Section :</t>
   </si>
   <si>
-    <t>LGCDD</t>
-  </si>
-  <si>
-    <t>PR No.:  2020-01-0017</t>
+    <t>LGMED</t>
+  </si>
+  <si>
+    <t>PR No.:  2020-02-00114</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
@@ -65,14 +65,65 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>S224</t>
+    <t>S063</t>
   </si>
   <si>
     <t>piece</t>
   </si>
   <si>
-    <t>Plaque
-1 Piece Glass Plaque, 14 inches tall, 1/4 thickness for LGRC logo  1/4 thick clear glass, elevated logo for the body of the plaque  1/4 thick clear glass for the base of the plaque 1/4 thick mirror and 3,8 bronze</t>
+    <t xml:space="preserve">Ball pen, Fine point, Blue
+</t>
+  </si>
+  <si>
+    <t>S064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pencil, No. 2
+</t>
+  </si>
+  <si>
+    <t>S156</t>
+  </si>
+  <si>
+    <t>bottle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ink for EPSON L565 T6641, black original
+</t>
+  </si>
+  <si>
+    <t>S046</t>
+  </si>
+  <si>
+    <t>pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tab, arrow flags, 10x48mm, 25shts/set, 7 colors/pack
+</t>
+  </si>
+  <si>
+    <t>S053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correction Tape, at least 12meters
+</t>
+  </si>
+  <si>
+    <t>S029</t>
+  </si>
+  <si>
+    <t>ream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copy Papers, A4
+</t>
+  </si>
+  <si>
+    <t>S030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copy Papers, legal
+</t>
   </si>
   <si>
     <t>Total</t>
@@ -81,7 +132,7 @@
     <t>Purpose:</t>
   </si>
   <si>
-    <t xml:space="preserve">DILG IV-A LGRC For Bench Marking Activity at Region IV on March 12-14 2020  </t>
+    <t xml:space="preserve">CFLGA Assessment 2020 </t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -96,7 +147,7 @@
     <t>Printed Name :</t>
   </si>
   <si>
-    <t>JAY-AR T. BELTRAN</t>
+    <t>GILBERTO L. TUMAMAC</t>
   </si>
   <si>
     <t>ELIAS F. FERNANDEZ, JR.</t>
@@ -105,7 +156,7 @@
     <t>Designation :</t>
   </si>
   <si>
-    <t>OIC - LGCDD Chief</t>
+    <t>OIC - LGMED Chief</t>
   </si>
   <si>
     <t>OIC-Regional Director</t>
@@ -115,8 +166,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -334,25 +386,25 @@
       </bottom>
     </border>
     <border>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
@@ -465,139 +517,135 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
+    <xf xfId="0" fontId="3" numFmtId="165" fillId="2" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
@@ -899,11 +947,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -918,10 +967,10 @@
   <sheetData>
     <row r="1" spans="1:6" customHeight="1" ht="15.75">
       <c r="A1" s="1"/>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="32"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" customHeight="1" ht="18.75">
       <c r="A2" s="1"/>
@@ -929,30 +978,30 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" customHeight="1" ht="18.75">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
     </row>
     <row r="4" spans="1:6" customHeight="1" ht="18.75">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
     </row>
     <row r="5" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
     </row>
     <row r="6" spans="1:6" customHeight="1" ht="21" s="7" customFormat="1">
       <c r="A6" s="8" t="s">
@@ -962,11 +1011,11 @@
         <v>3</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
     </row>
     <row r="7" spans="1:6" customHeight="1" ht="18" s="7" customFormat="1">
       <c r="A7" s="14" t="s">
@@ -979,14 +1028,14 @@
         <v>7</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="31"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:6" customHeight="1" ht="30.75" s="7" customFormat="1">
-      <c r="A8" s="38"/>
-      <c r="B8" s="39"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="15" t="s">
         <v>9</v>
       </c>
@@ -995,32 +1044,32 @@
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" customHeight="1" ht="16.5" s="7" customFormat="1">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="29" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" customHeight="1" ht="15.75" s="7" customFormat="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A11" s="17" t="s">
@@ -1029,71 +1078,143 @@
       <c r="B11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="59" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="18">
+        <v>20</v>
+      </c>
+      <c r="E11" s="26">
+        <v>10</v>
+      </c>
+      <c r="F11" s="26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="20">
+        <v>20</v>
+      </c>
+      <c r="E12" s="27">
+        <v>10</v>
+      </c>
+      <c r="F12" s="27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="20">
         <v>1</v>
       </c>
-      <c r="E11" s="26">
-        <v>3000</v>
-      </c>
-      <c r="F11" s="26">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-    </row>
-    <row r="13" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
+      <c r="E13" s="27">
+        <v>500</v>
+      </c>
+      <c r="F13" s="27">
+        <v>500</v>
+      </c>
     </row>
     <row r="14" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
+      <c r="A14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="20">
+        <v>2</v>
+      </c>
+      <c r="E14" s="27">
+        <v>64.4</v>
+      </c>
+      <c r="F14" s="27">
+        <v>128.8</v>
+      </c>
     </row>
     <row r="15" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
+      <c r="A15" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="20">
+        <v>2</v>
+      </c>
+      <c r="E15" s="27">
+        <v>71</v>
+      </c>
+      <c r="F15" s="27">
+        <v>142</v>
+      </c>
     </row>
     <row r="16" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
+      <c r="A16" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="20">
+        <v>20</v>
+      </c>
+      <c r="E16" s="27">
+        <v>40</v>
+      </c>
+      <c r="F16" s="27">
+        <v>800</v>
+      </c>
     </row>
     <row r="17" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
+      <c r="A17" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="20">
+        <v>10</v>
+      </c>
+      <c r="E17" s="27">
+        <v>40</v>
+      </c>
+      <c r="F17" s="27">
+        <v>400</v>
+      </c>
     </row>
     <row r="18" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
-      <c r="C18" s="29"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="20"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
@@ -1101,7 +1222,7 @@
     <row r="19" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
-      <c r="C19" s="29"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="20"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
@@ -1109,7 +1230,7 @@
     <row r="20" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A20" s="19"/>
       <c r="B20" s="20"/>
-      <c r="C20" s="29"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="20"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
@@ -1117,7 +1238,7 @@
     <row r="21" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
-      <c r="C21" s="29"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="20"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
@@ -1125,7 +1246,7 @@
     <row r="22" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A22" s="19"/>
       <c r="B22" s="20"/>
-      <c r="C22" s="29"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="20"/>
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
@@ -1133,7 +1254,7 @@
     <row r="23" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A23" s="19"/>
       <c r="B23" s="20"/>
-      <c r="C23" s="29"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="20"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
@@ -1141,7 +1262,7 @@
     <row r="24" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A24" s="19"/>
       <c r="B24" s="20"/>
-      <c r="C24" s="29"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="20"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
@@ -1149,7 +1270,7 @@
     <row r="25" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A25" s="19"/>
       <c r="B25" s="20"/>
-      <c r="C25" s="29"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="20"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
@@ -1157,7 +1278,7 @@
     <row r="26" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A26" s="19"/>
       <c r="B26" s="20"/>
-      <c r="C26" s="29"/>
+      <c r="C26" s="60"/>
       <c r="D26" s="20"/>
       <c r="E26" s="27"/>
       <c r="F26" s="27"/>
@@ -1165,7 +1286,7 @@
     <row r="27" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A27" s="19"/>
       <c r="B27" s="20"/>
-      <c r="C27" s="29"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="20"/>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
@@ -1173,7 +1294,7 @@
     <row r="28" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A28" s="19"/>
       <c r="B28" s="20"/>
-      <c r="C28" s="29"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="20"/>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
@@ -1181,7 +1302,7 @@
     <row r="29" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A29" s="19"/>
       <c r="B29" s="20"/>
-      <c r="C29" s="29"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="20"/>
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
@@ -1189,7 +1310,7 @@
     <row r="30" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A30" s="19"/>
       <c r="B30" s="20"/>
-      <c r="C30" s="29"/>
+      <c r="C30" s="60"/>
       <c r="D30" s="20"/>
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
@@ -1197,7 +1318,7 @@
     <row r="31" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A31" s="19"/>
       <c r="B31" s="20"/>
-      <c r="C31" s="29"/>
+      <c r="C31" s="60"/>
       <c r="D31" s="20"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
@@ -1205,7 +1326,7 @@
     <row r="32" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A32" s="19"/>
       <c r="B32" s="20"/>
-      <c r="C32" s="29"/>
+      <c r="C32" s="60"/>
       <c r="D32" s="20"/>
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>
@@ -1213,7 +1334,7 @@
     <row r="33" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A33" s="19"/>
       <c r="B33" s="20"/>
-      <c r="C33" s="29"/>
+      <c r="C33" s="60"/>
       <c r="D33" s="20"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
@@ -1221,7 +1342,7 @@
     <row r="34" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A34" s="19"/>
       <c r="B34" s="20"/>
-      <c r="C34" s="29"/>
+      <c r="C34" s="60"/>
       <c r="D34" s="20"/>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
@@ -1229,7 +1350,7 @@
     <row r="35" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A35" s="19"/>
       <c r="B35" s="20"/>
-      <c r="C35" s="29"/>
+      <c r="C35" s="60"/>
       <c r="D35" s="20"/>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
@@ -1240,116 +1361,102 @@
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="24" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F36" s="25">
         <f>SUM(F11:F35)</f>
-        <v>3000</v>
+        <v>2370.8</v>
       </c>
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A37" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="49"/>
+      <c r="A37" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="42"/>
     </row>
     <row r="38" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A38" s="55"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="51"/>
+      <c r="A38" s="47"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="44"/>
     </row>
     <row r="39" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A39" s="55"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="51"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="44"/>
     </row>
     <row r="40" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A40" s="56"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="53"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="45"/>
     </row>
     <row r="41" spans="1:6" customHeight="1" ht="16.5">
       <c r="A41" s="3"/>
-      <c r="B41" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="46"/>
-      <c r="F41" s="47"/>
+      <c r="B41" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="33"/>
+      <c r="D41" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="39"/>
+      <c r="F41" s="40"/>
     </row>
     <row r="42" spans="1:6" customHeight="1" ht="15.75">
       <c r="A42" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="43"/>
+        <v>39</v>
+      </c>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="36"/>
     </row>
     <row r="43" spans="1:6" customHeight="1" ht="15.75">
       <c r="A43" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" s="44"/>
-      <c r="F43" s="45"/>
+        <v>40</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="31"/>
+      <c r="D43" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="37"/>
+      <c r="F43" s="38"/>
     </row>
     <row r="44" spans="1:6" customHeight="1" ht="20.25">
       <c r="A44" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="52"/>
-      <c r="D44" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="58"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="32"/>
+      <c r="D44" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="49"/>
+      <c r="F44" s="50"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="true" formatColumns="true" formatRows="true" insertColumns="true" insertRows="true" insertHyperlinks="true" deleteColumns="true" deleteRows="true" selectLockedCells="false" sort="true" autoFilter="true" pivotTables="true" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="B37:F40"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="E7:F7"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="A9:A10"/>
@@ -1359,10 +1466,23 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="B37:F40"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
-  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0" header="0.5" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="70" fitToHeight="0" fitToWidth="1"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="65" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 151</oddFooter>

--- a/export_pr1.xlsx
+++ b/export_pr1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>Appendix 60</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Office/Section :</t>
   </si>
   <si>
-    <t>LGMED</t>
-  </si>
-  <si>
-    <t>PR No.:  2020-02-00114</t>
+    <t>LGCDD</t>
+  </si>
+  <si>
+    <t>PR No.:  2020-02-0093</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
@@ -65,76 +65,97 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>S063</t>
+    <t>S282</t>
   </si>
   <si>
     <t>piece</t>
   </si>
   <si>
-    <t xml:space="preserve">Ball pen, Fine point, Blue
+    <t xml:space="preserve">Tape Dispenser
 </t>
   </si>
   <si>
-    <t>S064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pencil, No. 2
+    <t>S739</t>
+  </si>
+  <si>
+    <t>pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manila Paper (3 sheets/pack)
 </t>
   </si>
   <si>
-    <t>S156</t>
-  </si>
-  <si>
-    <t>bottle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ink for EPSON L565 T6641, black original
+    <t>S740</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permanent Marker (12 pcs/box)
 </t>
   </si>
   <si>
-    <t>S046</t>
-  </si>
-  <si>
-    <t>pack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tab, arrow flags, 10x48mm, 25shts/set, 7 colors/pack
+    <t>S741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whiteboard Marker (12 pcs/box)
 </t>
   </si>
   <si>
-    <t>S053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correction Tape, at least 12meters
+    <t>S742</t>
+  </si>
+  <si>
+    <t>roll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scotch Tape
 </t>
   </si>
   <si>
-    <t>S029</t>
+    <t>S284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double-sided Tape
+</t>
+  </si>
+  <si>
+    <t>S744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cartolina (assorted 10 pcs/roll)
+</t>
+  </si>
+  <si>
+    <t>S232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specialty paper; A4 size; 20s per pack
+</t>
+  </si>
+  <si>
+    <t>S745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID Puncher
+</t>
+  </si>
+  <si>
+    <t>S713</t>
   </si>
   <si>
     <t>ream</t>
   </si>
   <si>
-    <t xml:space="preserve">Copy Papers, A4
+    <t xml:space="preserve">Bond paper (A4)
 </t>
   </si>
   <si>
-    <t>S030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copy Papers, legal
-</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
     <t>Purpose:</t>
   </si>
   <si>
-    <t xml:space="preserve">CFLGA Assessment 2020 </t>
-  </si>
-  <si>
     <t>Requested by:</t>
   </si>
   <si>
@@ -147,7 +168,7 @@
     <t>Printed Name :</t>
   </si>
   <si>
-    <t>GILBERTO L. TUMAMAC</t>
+    <t>JOHN M. CEREZO</t>
   </si>
   <si>
     <t>ELIAS F. FERNANDEZ, JR.</t>
@@ -156,7 +177,7 @@
     <t>Designation :</t>
   </si>
   <si>
-    <t>OIC - LGMED Chief</t>
+    <t>LGMED Chief</t>
   </si>
   <si>
     <t>OIC-Regional Director</t>
@@ -1082,13 +1103,13 @@
         <v>18</v>
       </c>
       <c r="D11" s="18">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E11" s="26">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="F11" s="26">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
@@ -1096,59 +1117,59 @@
         <v>19</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="20">
         <v>20</v>
       </c>
       <c r="E12" s="27">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F12" s="27">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A13" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E13" s="27">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="F13" s="27">
-        <v>500</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="14" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A14" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="60" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14" s="27">
-        <v>64.4</v>
+        <v>450</v>
       </c>
       <c r="F14" s="27">
-        <v>128.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="15" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
@@ -1156,39 +1177,37 @@
         <v>27</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" s="20">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E15" s="27">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="F15" s="27">
-        <v>142</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A16" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="20" t="s">
         <v>30</v>
       </c>
+      <c r="B16" s="20"/>
       <c r="C16" s="60" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="20">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E16" s="27">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F16" s="27">
-        <v>800</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
@@ -1196,44 +1215,80 @@
         <v>32</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C17" s="60" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="27">
+        <v>65</v>
+      </c>
+      <c r="F17" s="27">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A18" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="20">
+        <v>20</v>
+      </c>
+      <c r="E18" s="27">
+        <v>60</v>
+      </c>
+      <c r="F18" s="27">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A19" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="20">
+        <v>1</v>
+      </c>
+      <c r="E19" s="27">
+        <v>400</v>
+      </c>
+      <c r="F19" s="27">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A20" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="27">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-    </row>
-    <row r="19" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-    </row>
-    <row r="20" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
+      <c r="D20" s="20">
+        <v>4</v>
+      </c>
+      <c r="E20" s="27">
+        <v>300</v>
+      </c>
+      <c r="F20" s="27">
+        <v>1200</v>
+      </c>
     </row>
     <row r="21" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A21" s="19"/>
@@ -1361,20 +1416,18 @@
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="24" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F36" s="25">
         <f>SUM(F11:F35)</f>
-        <v>2370.8</v>
+        <v>8935</v>
       </c>
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">
       <c r="A37" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="41" t="s">
-        <v>36</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B37" s="41"/>
       <c r="C37" s="41"/>
       <c r="D37" s="41"/>
       <c r="E37" s="41"/>
@@ -1407,18 +1460,18 @@
     <row r="41" spans="1:6" customHeight="1" ht="16.5">
       <c r="A41" s="3"/>
       <c r="B41" s="33" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C41" s="33"/>
       <c r="D41" s="39" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
     </row>
     <row r="42" spans="1:6" customHeight="1" ht="15.75">
       <c r="A42" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B42" s="34"/>
       <c r="C42" s="34"/>
@@ -1428,28 +1481,28 @@
     </row>
     <row r="43" spans="1:6" customHeight="1" ht="15.75">
       <c r="A43" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C43" s="31"/>
       <c r="D43" s="37" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
     </row>
     <row r="44" spans="1:6" customHeight="1" ht="20.25">
       <c r="A44" s="6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C44" s="32"/>
       <c r="D44" s="49" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>

--- a/export_pr1.xlsx
+++ b/export_pr1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>Appendix 60</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Office/Section :</t>
   </si>
   <si>
-    <t>LGCDD</t>
-  </si>
-  <si>
-    <t>PR No.:  2020-02-0093</t>
+    <t>LGMED</t>
+  </si>
+  <si>
+    <t>PR No.:  2020-02-00118</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
@@ -65,97 +65,32 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>S282</t>
+    <t>S091</t>
   </si>
   <si>
     <t>piece</t>
   </si>
   <si>
-    <t xml:space="preserve">Tape Dispenser
+    <t xml:space="preserve">Load card (globe 500)
 </t>
   </si>
   <si>
-    <t>S739</t>
-  </si>
-  <si>
-    <t>pack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manila Paper (3 sheets/pack)
+    <t>S104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load card (smart 500)
 </t>
   </si>
   <si>
-    <t>S740</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permanent Marker (12 pcs/box)
-</t>
-  </si>
-  <si>
-    <t>S741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whiteboard Marker (12 pcs/box)
-</t>
-  </si>
-  <si>
-    <t>S742</t>
-  </si>
-  <si>
-    <t>roll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scotch Tape
-</t>
-  </si>
-  <si>
-    <t>S284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Double-sided Tape
-</t>
-  </si>
-  <si>
-    <t>S744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cartolina (assorted 10 pcs/roll)
-</t>
-  </si>
-  <si>
-    <t>S232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specialty paper; A4 size; 20s per pack
-</t>
-  </si>
-  <si>
-    <t>S745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID Puncher
-</t>
-  </si>
-  <si>
-    <t>S713</t>
-  </si>
-  <si>
-    <t>ream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bond paper (A4)
-</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
     <t>Purpose:</t>
   </si>
   <si>
+    <t>Support to Operation in the implementation of CMGP Programs for 1st Semester FY 2020</t>
+  </si>
+  <si>
     <t>Requested by:</t>
   </si>
   <si>
@@ -168,7 +103,7 @@
     <t>Printed Name :</t>
   </si>
   <si>
-    <t>JOHN M. CEREZO</t>
+    <t>GILBERTO L. TUMAMAC</t>
   </si>
   <si>
     <t>ELIAS F. FERNANDEZ, JR.</t>
@@ -177,7 +112,7 @@
     <t>Designation :</t>
   </si>
   <si>
-    <t>LGMED Chief</t>
+    <t>OIC - LGMED Chief</t>
   </si>
   <si>
     <t>OIC-Regional Director</t>
@@ -1103,13 +1038,13 @@
         <v>18</v>
       </c>
       <c r="D11" s="18">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="E11" s="26">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F11" s="26">
-        <v>300</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="12" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
@@ -1117,178 +1052,84 @@
         <v>19</v>
       </c>
       <c r="B12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="60" t="s">
-        <v>21</v>
-      </c>
       <c r="D12" s="20">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12" s="27">
-        <v>15</v>
+        <v>500</v>
       </c>
       <c r="F12" s="27">
-        <v>300</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="13" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="20">
-        <v>4</v>
-      </c>
-      <c r="E13" s="27">
-        <v>550</v>
-      </c>
-      <c r="F13" s="27">
-        <v>2200</v>
-      </c>
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A14" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="20">
-        <v>4</v>
-      </c>
-      <c r="E14" s="27">
-        <v>450</v>
-      </c>
-      <c r="F14" s="27">
-        <v>1800</v>
-      </c>
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A15" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="20">
-        <v>30</v>
-      </c>
-      <c r="E15" s="27">
-        <v>20</v>
-      </c>
-      <c r="F15" s="27">
-        <v>600</v>
-      </c>
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A16" s="19" t="s">
-        <v>30</v>
-      </c>
+      <c r="A16" s="19"/>
       <c r="B16" s="20"/>
-      <c r="C16" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="20">
-        <v>10</v>
-      </c>
-      <c r="E16" s="27">
-        <v>35</v>
-      </c>
-      <c r="F16" s="27">
-        <v>350</v>
-      </c>
+      <c r="C16" s="60"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A17" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="20">
-        <v>9</v>
-      </c>
-      <c r="E17" s="27">
-        <v>65</v>
-      </c>
-      <c r="F17" s="27">
-        <v>585</v>
-      </c>
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A18" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="20">
-        <v>20</v>
-      </c>
-      <c r="E18" s="27">
-        <v>60</v>
-      </c>
-      <c r="F18" s="27">
-        <v>1200</v>
-      </c>
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A19" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="20">
-        <v>1</v>
-      </c>
-      <c r="E19" s="27">
-        <v>400</v>
-      </c>
-      <c r="F19" s="27">
-        <v>400</v>
-      </c>
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A20" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="20">
-        <v>4</v>
-      </c>
-      <c r="E20" s="27">
-        <v>300</v>
-      </c>
-      <c r="F20" s="27">
-        <v>1200</v>
-      </c>
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A21" s="19"/>
@@ -1416,18 +1257,20 @@
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="24" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F36" s="25">
         <f>SUM(F11:F35)</f>
-        <v>8935</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">
       <c r="A37" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="41"/>
+        <v>22</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>23</v>
+      </c>
       <c r="C37" s="41"/>
       <c r="D37" s="41"/>
       <c r="E37" s="41"/>
@@ -1460,18 +1303,18 @@
     <row r="41" spans="1:6" customHeight="1" ht="16.5">
       <c r="A41" s="3"/>
       <c r="B41" s="33" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C41" s="33"/>
       <c r="D41" s="39" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
     </row>
     <row r="42" spans="1:6" customHeight="1" ht="15.75">
       <c r="A42" s="4" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B42" s="34"/>
       <c r="C42" s="34"/>
@@ -1481,28 +1324,28 @@
     </row>
     <row r="43" spans="1:6" customHeight="1" ht="15.75">
       <c r="A43" s="4" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C43" s="31"/>
       <c r="D43" s="37" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
     </row>
     <row r="44" spans="1:6" customHeight="1" ht="20.25">
       <c r="A44" s="6" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C44" s="32"/>
       <c r="D44" s="49" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>

--- a/export_pr1.xlsx
+++ b/export_pr1.xlsx
@@ -35,10 +35,10 @@
     <t>Office/Section :</t>
   </si>
   <si>
-    <t>LGMED</t>
-  </si>
-  <si>
-    <t>PR No.:  2020-02-00121</t>
+    <t>FAD</t>
+  </si>
+  <si>
+    <t>PR No.:  2020-02-00109</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
@@ -65,13 +65,13 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>S763</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Token
+    <t>S370</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HRMPSB Meeting
 </t>
   </si>
   <si>
@@ -81,7 +81,7 @@
     <t>Purpose:</t>
   </si>
   <si>
-    <t>Program Updating and Levelling-off in the Implementation of Locally-funded Projects in CALABARZON Region</t>
+    <t xml:space="preserve">Meals for HRMPSB Meeting cum Planning Officer III Assessment </t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -96,7 +96,7 @@
     <t>Printed Name :</t>
   </si>
   <si>
-    <t>GILBERTO L. TUMAMAC</t>
+    <t>DR. CARINA S. CRUZ</t>
   </si>
   <si>
     <t>ELIAS F. FERNANDEZ, JR.</t>
@@ -105,7 +105,7 @@
     <t>Designation :</t>
   </si>
   <si>
-    <t>OIC - LGMED Chief</t>
+    <t>FAD Chief</t>
   </si>
   <si>
     <t>OIC-Regional Director</t>
@@ -1031,13 +1031,13 @@
         <v>18</v>
       </c>
       <c r="D11" s="18">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11" s="26">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F11" s="26">
-        <v>7200</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="12" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="F36" s="25">
         <f>SUM(F11:F35)</f>
-        <v>7200</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">
@@ -1332,7 +1332,7 @@
       <c r="F44" s="50"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="true" formatColumns="true" formatRows="true" insertColumns="true" insertRows="true" insertHyperlinks="true" deleteColumns="true" deleteRows="true" selectLockedCells="false" sort="true" autoFilter="true" pivotTables="true" selectUnlockedCells="false"/>
+  <sheetProtection password="83AF" sheet="true" objects="false" scenarios="false" formatCells="true" formatColumns="true" formatRows="true" insertColumns="true" insertRows="true" insertHyperlinks="true" deleteColumns="true" deleteRows="true" selectLockedCells="false" sort="true" autoFilter="true" pivotTables="true" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="D6:F6"/>

--- a/export_pr1.xlsx
+++ b/export_pr1.xlsx
@@ -35,10 +35,10 @@
     <t>Office/Section :</t>
   </si>
   <si>
-    <t>LGMED</t>
-  </si>
-  <si>
-    <t>PR No.:  2020-02-00121</t>
+    <t>FAD</t>
+  </si>
+  <si>
+    <t>PR No.:  2020-02-00109</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
@@ -65,13 +65,13 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>S763</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Token
+    <t>S370</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HRMPSB Meeting
 </t>
   </si>
   <si>
@@ -81,7 +81,7 @@
     <t>Purpose:</t>
   </si>
   <si>
-    <t>Program Updating and Levelling-off in the Implementation of Locally-funded Projects in CALABARZON Region</t>
+    <t xml:space="preserve">Meals for HRMPSB Meeting cum Planning Officer III Assessment </t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -96,7 +96,7 @@
     <t>Printed Name :</t>
   </si>
   <si>
-    <t>GILBERTO L. TUMAMAC</t>
+    <t>DR. CARINA S. CRUZ</t>
   </si>
   <si>
     <t>ELIAS F. FERNANDEZ, JR.</t>
@@ -105,7 +105,7 @@
     <t>Designation :</t>
   </si>
   <si>
-    <t>OIC - LGMED Chief</t>
+    <t>FAD Chief</t>
   </si>
   <si>
     <t>OIC-Regional Director</t>
@@ -1031,13 +1031,13 @@
         <v>18</v>
       </c>
       <c r="D11" s="18">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11" s="26">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F11" s="26">
-        <v>7200</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="12" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="F36" s="25">
         <f>SUM(F11:F35)</f>
-        <v>7200</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">
@@ -1332,7 +1332,7 @@
       <c r="F44" s="50"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="true" formatColumns="true" formatRows="true" insertColumns="true" insertRows="true" insertHyperlinks="true" deleteColumns="true" deleteRows="true" selectLockedCells="false" sort="true" autoFilter="true" pivotTables="true" selectUnlockedCells="false"/>
+  <sheetProtection password="DD3C" sheet="true" objects="false" scenarios="false" formatCells="true" formatColumns="true" formatRows="true" insertColumns="true" insertRows="true" insertHyperlinks="true" deleteColumns="true" deleteRows="true" selectLockedCells="false" sort="true" autoFilter="true" pivotTables="true" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="D6:F6"/>

--- a/export_pr1.xlsx
+++ b/export_pr1.xlsx
@@ -38,7 +38,7 @@
     <t>LGMED</t>
   </si>
   <si>
-    <t>PR No.:  2020-02-00124</t>
+    <t>PR No.:  2020-02-00102</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
@@ -65,21 +65,21 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>S104</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load card (smart 500)
-</t>
-  </si>
-  <si>
-    <t>S091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load card (globe 500)
-</t>
+    <t>S217</t>
+  </si>
+  <si>
+    <t>pack</t>
+  </si>
+  <si>
+    <t>Conduct of CFLGA-RIMTF Table Top Assessement (Live-in)
+.</t>
+  </si>
+  <si>
+    <t>S218</t>
+  </si>
+  <si>
+    <t>Conduct of CFLGA-RIMTF Table Top Assessement (Live-out)
+.</t>
   </si>
   <si>
     <t>Total</t>
@@ -88,7 +88,7 @@
     <t>Purpose:</t>
   </si>
   <si>
-    <t>to be used in support to operation in monitoring Locally-Funded Projects of Regional and Provincial PDMU Personnel</t>
+    <t>CFLGA  ASSESSMENT 2020</t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -106,7 +106,7 @@
     <t>GILBERTO L. TUMAMAC</t>
   </si>
   <si>
-    <t>ELIAS F. FERNANDEZ, JR.</t>
+    <t>NOEL R. BARTOLABAC, CESO V</t>
   </si>
   <si>
     <t>Designation :</t>
@@ -115,7 +115,7 @@
     <t>OIC - LGMED Chief</t>
   </si>
   <si>
-    <t>OIC-Regional Director</t>
+    <t>Assistant Regional Director</t>
   </si>
 </sst>
 </file>
@@ -342,19 +342,19 @@
       </bottom>
     </border>
     <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -477,6 +477,30 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
@@ -485,123 +509,99 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
@@ -908,7 +908,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -923,10 +923,10 @@
   <sheetData>
     <row r="1" spans="1:6" customHeight="1" ht="15.75">
       <c r="A1" s="1"/>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="51"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6" customHeight="1" ht="18.75">
       <c r="A2" s="1"/>
@@ -934,30 +934,30 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" customHeight="1" ht="18.75">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:6" customHeight="1" ht="18.75">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
     </row>
     <row r="5" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:6" customHeight="1" ht="21" s="7" customFormat="1">
       <c r="A6" s="8" t="s">
@@ -967,11 +967,11 @@
         <v>3</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:6" customHeight="1" ht="18" s="7" customFormat="1">
       <c r="A7" s="14" t="s">
@@ -990,8 +990,8 @@
       <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:6" customHeight="1" ht="30.75" s="7" customFormat="1">
-      <c r="A8" s="55"/>
-      <c r="B8" s="56"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="15" t="s">
         <v>9</v>
       </c>
@@ -1000,32 +1000,32 @@
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" customHeight="1" ht="16.5" s="7" customFormat="1">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="35" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" customHeight="1" ht="15.75" s="7" customFormat="1">
-      <c r="A10" s="54"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A11" s="17" t="s">
@@ -1034,17 +1034,17 @@
       <c r="B11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="29" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="18">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="E11" s="26">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F11" s="26">
-        <v>26000</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="12" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
@@ -1054,23 +1054,23 @@
       <c r="B12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="30" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="20">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="E12" s="27">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="F12" s="27">
-        <v>77500</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="13" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A13" s="19"/>
       <c r="B13" s="20"/>
-      <c r="C13" s="60"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="20"/>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
@@ -1078,7 +1078,7 @@
     <row r="14" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A14" s="19"/>
       <c r="B14" s="20"/>
-      <c r="C14" s="60"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="20"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
@@ -1086,7 +1086,7 @@
     <row r="15" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A15" s="19"/>
       <c r="B15" s="20"/>
-      <c r="C15" s="60"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="20"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
@@ -1094,7 +1094,7 @@
     <row r="16" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A16" s="19"/>
       <c r="B16" s="20"/>
-      <c r="C16" s="60"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="20"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
@@ -1102,7 +1102,7 @@
     <row r="17" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
-      <c r="C17" s="60"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="20"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
@@ -1110,7 +1110,7 @@
     <row r="18" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
-      <c r="C18" s="60"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="20"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
@@ -1118,7 +1118,7 @@
     <row r="19" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
-      <c r="C19" s="60"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="20"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
@@ -1126,7 +1126,7 @@
     <row r="20" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A20" s="19"/>
       <c r="B20" s="20"/>
-      <c r="C20" s="60"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="20"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
@@ -1134,7 +1134,7 @@
     <row r="21" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
-      <c r="C21" s="60"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="20"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
@@ -1142,7 +1142,7 @@
     <row r="22" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A22" s="19"/>
       <c r="B22" s="20"/>
-      <c r="C22" s="60"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="20"/>
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
@@ -1150,7 +1150,7 @@
     <row r="23" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A23" s="19"/>
       <c r="B23" s="20"/>
-      <c r="C23" s="60"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="20"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
@@ -1158,7 +1158,7 @@
     <row r="24" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A24" s="19"/>
       <c r="B24" s="20"/>
-      <c r="C24" s="60"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="20"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
@@ -1166,7 +1166,7 @@
     <row r="25" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A25" s="19"/>
       <c r="B25" s="20"/>
-      <c r="C25" s="60"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="20"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
@@ -1174,7 +1174,7 @@
     <row r="26" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A26" s="19"/>
       <c r="B26" s="20"/>
-      <c r="C26" s="60"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="20"/>
       <c r="E26" s="27"/>
       <c r="F26" s="27"/>
@@ -1182,7 +1182,7 @@
     <row r="27" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A27" s="19"/>
       <c r="B27" s="20"/>
-      <c r="C27" s="60"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="20"/>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
@@ -1190,7 +1190,7 @@
     <row r="28" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A28" s="19"/>
       <c r="B28" s="20"/>
-      <c r="C28" s="60"/>
+      <c r="C28" s="30"/>
       <c r="D28" s="20"/>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
@@ -1198,7 +1198,7 @@
     <row r="29" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A29" s="19"/>
       <c r="B29" s="20"/>
-      <c r="C29" s="60"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="20"/>
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
@@ -1206,7 +1206,7 @@
     <row r="30" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A30" s="19"/>
       <c r="B30" s="20"/>
-      <c r="C30" s="60"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="20"/>
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
@@ -1214,7 +1214,7 @@
     <row r="31" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A31" s="19"/>
       <c r="B31" s="20"/>
-      <c r="C31" s="60"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="20"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
@@ -1222,7 +1222,7 @@
     <row r="32" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A32" s="19"/>
       <c r="B32" s="20"/>
-      <c r="C32" s="60"/>
+      <c r="C32" s="30"/>
       <c r="D32" s="20"/>
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>
@@ -1230,7 +1230,7 @@
     <row r="33" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A33" s="19"/>
       <c r="B33" s="20"/>
-      <c r="C33" s="60"/>
+      <c r="C33" s="30"/>
       <c r="D33" s="20"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
@@ -1238,7 +1238,7 @@
     <row r="34" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A34" s="19"/>
       <c r="B34" s="20"/>
-      <c r="C34" s="60"/>
+      <c r="C34" s="30"/>
       <c r="D34" s="20"/>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
@@ -1246,7 +1246,7 @@
     <row r="35" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A35" s="19"/>
       <c r="B35" s="20"/>
-      <c r="C35" s="60"/>
+      <c r="C35" s="30"/>
       <c r="D35" s="20"/>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
@@ -1261,98 +1261,110 @@
       </c>
       <c r="F36" s="25">
         <f>SUM(F11:F35)</f>
-        <v>103500</v>
+        <v>57600</v>
       </c>
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="42"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="48"/>
     </row>
     <row r="38" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A38" s="47"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="44"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="50"/>
     </row>
     <row r="39" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A39" s="47"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="44"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="50"/>
     </row>
     <row r="40" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A40" s="48"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="45"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="52"/>
     </row>
     <row r="41" spans="1:6" customHeight="1" ht="16.5">
       <c r="A41" s="3"/>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="39" t="s">
+      <c r="C41" s="59"/>
+      <c r="D41" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="E41" s="39"/>
-      <c r="F41" s="40"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="46"/>
     </row>
     <row r="42" spans="1:6" customHeight="1" ht="15.75">
       <c r="A42" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="36"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="42"/>
     </row>
     <row r="43" spans="1:6" customHeight="1" ht="15.75">
       <c r="A43" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="37" t="s">
+      <c r="C43" s="58"/>
+      <c r="D43" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="37"/>
-      <c r="F43" s="38"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="44"/>
     </row>
     <row r="44" spans="1:6" customHeight="1" ht="20.25">
       <c r="A44" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="49" t="s">
+      <c r="C44" s="51"/>
+      <c r="D44" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="49"/>
-      <c r="F44" s="50"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="57"/>
     </row>
   </sheetData>
   <sheetProtection password="DD3C" sheet="true" objects="false" scenarios="false" formatCells="true" formatColumns="true" formatRows="true" insertColumns="true" insertRows="true" insertHyperlinks="true" deleteColumns="true" deleteRows="true" selectLockedCells="false" sort="true" autoFilter="true" pivotTables="true" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="B37:F40"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="D44:F44"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="A9:A10"/>
@@ -1363,18 +1375,6 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="B37:F40"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/export_pr1.xlsx
+++ b/export_pr1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>Appendix 60</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Office/Section :</t>
   </si>
   <si>
-    <t>LGMED</t>
-  </si>
-  <si>
-    <t>PR No.:  2020-02-00102</t>
+    <t>FAD</t>
+  </si>
+  <si>
+    <t>PR No.:  2020-03-0135</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
@@ -65,21 +65,14 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>S217</t>
-  </si>
-  <si>
-    <t>pack</t>
-  </si>
-  <si>
-    <t>Conduct of CFLGA-RIMTF Table Top Assessement (Live-in)
-.</t>
-  </si>
-  <si>
-    <t>S218</t>
-  </si>
-  <si>
-    <t>Conduct of CFLGA-RIMTF Table Top Assessement (Live-out)
-.</t>
+    <t>S780</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>Meals- Conduct of Orientation on BIR Requirements and Processes Concerning Personnel under Contract of Services and Job Order
+Meal (AM Snacks and Lunch)</t>
   </si>
   <si>
     <t>Total</t>
@@ -88,7 +81,7 @@
     <t>Purpose:</t>
   </si>
   <si>
-    <t>CFLGA  ASSESSMENT 2020</t>
+    <t>Meals during conduct of Orientation on BIR Requirements and Processes Concerning Personnel under Contract of Services and Job Order.</t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -103,7 +96,7 @@
     <t>Printed Name :</t>
   </si>
   <si>
-    <t>GILBERTO L. TUMAMAC</t>
+    <t>DR. CARINA S. CRUZ</t>
   </si>
   <si>
     <t>NOEL R. BARTOLABAC, CESO V</t>
@@ -112,7 +105,7 @@
     <t>Designation :</t>
   </si>
   <si>
-    <t>OIC - LGMED Chief</t>
+    <t>FAD Chief</t>
   </si>
   <si>
     <t>Assistant Regional Director</t>
@@ -122,9 +115,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -342,25 +334,25 @@
       </bottom>
     </border>
     <border>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
@@ -473,10 +465,6 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="165" fillId="2" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
@@ -485,6 +473,94 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
@@ -501,14 +577,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
@@ -525,84 +593,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
   </cellXfs>
@@ -908,7 +904,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -923,10 +919,10 @@
   <sheetData>
     <row r="1" spans="1:6" customHeight="1" ht="15.75">
       <c r="A1" s="1"/>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="31"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" customHeight="1" ht="18.75">
       <c r="A2" s="1"/>
@@ -934,30 +930,30 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" customHeight="1" ht="18.75">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
     </row>
     <row r="4" spans="1:6" customHeight="1" ht="18.75">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
     </row>
     <row r="5" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
     </row>
     <row r="6" spans="1:6" customHeight="1" ht="21" s="7" customFormat="1">
       <c r="A6" s="8" t="s">
@@ -967,11 +963,11 @@
         <v>3</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:6" customHeight="1" ht="18" s="7" customFormat="1">
       <c r="A7" s="14" t="s">
@@ -984,14 +980,14 @@
         <v>7</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="28"/>
+      <c r="F7" s="61"/>
     </row>
     <row r="8" spans="1:6" customHeight="1" ht="30.75" s="7" customFormat="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="15" t="s">
         <v>9</v>
       </c>
@@ -1000,32 +996,32 @@
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" customHeight="1" ht="16.5" s="7" customFormat="1">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="30" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" customHeight="1" ht="15.75" s="7" customFormat="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A11" s="17" t="s">
@@ -1034,43 +1030,31 @@
       <c r="B11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="18">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E11" s="26">
-        <v>2000</v>
+        <v>425</v>
       </c>
       <c r="F11" s="26">
-        <v>36000</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="12" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="20">
-        <v>18</v>
-      </c>
-      <c r="E12" s="27">
-        <v>1200</v>
-      </c>
-      <c r="F12" s="27">
-        <v>21600</v>
-      </c>
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A13" s="19"/>
       <c r="B13" s="20"/>
-      <c r="C13" s="30"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="20"/>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
@@ -1078,7 +1062,7 @@
     <row r="14" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A14" s="19"/>
       <c r="B14" s="20"/>
-      <c r="C14" s="30"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="20"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
@@ -1086,7 +1070,7 @@
     <row r="15" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A15" s="19"/>
       <c r="B15" s="20"/>
-      <c r="C15" s="30"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="20"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
@@ -1094,7 +1078,7 @@
     <row r="16" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A16" s="19"/>
       <c r="B16" s="20"/>
-      <c r="C16" s="30"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="20"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
@@ -1102,7 +1086,7 @@
     <row r="17" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
-      <c r="C17" s="30"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="20"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
@@ -1110,7 +1094,7 @@
     <row r="18" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
-      <c r="C18" s="30"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="20"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
@@ -1118,7 +1102,7 @@
     <row r="19" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
-      <c r="C19" s="30"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="20"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
@@ -1126,7 +1110,7 @@
     <row r="20" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A20" s="19"/>
       <c r="B20" s="20"/>
-      <c r="C20" s="30"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="20"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
@@ -1134,7 +1118,7 @@
     <row r="21" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
-      <c r="C21" s="30"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="20"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
@@ -1142,7 +1126,7 @@
     <row r="22" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A22" s="19"/>
       <c r="B22" s="20"/>
-      <c r="C22" s="30"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="20"/>
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
@@ -1150,7 +1134,7 @@
     <row r="23" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A23" s="19"/>
       <c r="B23" s="20"/>
-      <c r="C23" s="30"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="20"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
@@ -1158,7 +1142,7 @@
     <row r="24" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A24" s="19"/>
       <c r="B24" s="20"/>
-      <c r="C24" s="30"/>
+      <c r="C24" s="29"/>
       <c r="D24" s="20"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
@@ -1166,7 +1150,7 @@
     <row r="25" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A25" s="19"/>
       <c r="B25" s="20"/>
-      <c r="C25" s="30"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="20"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
@@ -1174,7 +1158,7 @@
     <row r="26" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A26" s="19"/>
       <c r="B26" s="20"/>
-      <c r="C26" s="30"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="20"/>
       <c r="E26" s="27"/>
       <c r="F26" s="27"/>
@@ -1182,7 +1166,7 @@
     <row r="27" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A27" s="19"/>
       <c r="B27" s="20"/>
-      <c r="C27" s="30"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="20"/>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
@@ -1190,7 +1174,7 @@
     <row r="28" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A28" s="19"/>
       <c r="B28" s="20"/>
-      <c r="C28" s="30"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="20"/>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
@@ -1198,7 +1182,7 @@
     <row r="29" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A29" s="19"/>
       <c r="B29" s="20"/>
-      <c r="C29" s="30"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="20"/>
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
@@ -1206,7 +1190,7 @@
     <row r="30" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A30" s="19"/>
       <c r="B30" s="20"/>
-      <c r="C30" s="30"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="20"/>
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
@@ -1214,7 +1198,7 @@
     <row r="31" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A31" s="19"/>
       <c r="B31" s="20"/>
-      <c r="C31" s="30"/>
+      <c r="C31" s="29"/>
       <c r="D31" s="20"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
@@ -1222,7 +1206,7 @@
     <row r="32" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A32" s="19"/>
       <c r="B32" s="20"/>
-      <c r="C32" s="30"/>
+      <c r="C32" s="29"/>
       <c r="D32" s="20"/>
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>
@@ -1230,7 +1214,7 @@
     <row r="33" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A33" s="19"/>
       <c r="B33" s="20"/>
-      <c r="C33" s="30"/>
+      <c r="C33" s="29"/>
       <c r="D33" s="20"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
@@ -1238,7 +1222,7 @@
     <row r="34" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A34" s="19"/>
       <c r="B34" s="20"/>
-      <c r="C34" s="30"/>
+      <c r="C34" s="29"/>
       <c r="D34" s="20"/>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
@@ -1246,7 +1230,7 @@
     <row r="35" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A35" s="19"/>
       <c r="B35" s="20"/>
-      <c r="C35" s="30"/>
+      <c r="C35" s="29"/>
       <c r="D35" s="20"/>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
@@ -1257,114 +1241,103 @@
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F36" s="25">
         <f>SUM(F11:F35)</f>
-        <v>57600</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A37" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="48"/>
+      <c r="A37" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="43"/>
     </row>
     <row r="38" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A38" s="54"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="50"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="45"/>
     </row>
     <row r="39" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A39" s="54"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="50"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="45"/>
     </row>
     <row r="40" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A40" s="55"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="52"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="46"/>
     </row>
     <row r="41" spans="1:6" customHeight="1" ht="16.5">
       <c r="A41" s="3"/>
-      <c r="B41" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="59"/>
-      <c r="D41" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" s="45"/>
-      <c r="F41" s="46"/>
+      <c r="B41" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="34"/>
+      <c r="D41" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="40"/>
+      <c r="F41" s="41"/>
     </row>
     <row r="42" spans="1:6" customHeight="1" ht="15.75">
       <c r="A42" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="42"/>
+        <v>24</v>
+      </c>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="37"/>
     </row>
     <row r="43" spans="1:6" customHeight="1" ht="15.75">
       <c r="A43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="32"/>
+      <c r="D43" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="58"/>
-      <c r="D43" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" s="43"/>
-      <c r="F43" s="44"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="39"/>
     </row>
     <row r="44" spans="1:6" customHeight="1" ht="20.25">
       <c r="A44" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="33"/>
+      <c r="D44" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="56"/>
-      <c r="F44" s="57"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="51"/>
     </row>
   </sheetData>
   <sheetProtection password="DD3C" sheet="true" objects="false" scenarios="false" formatCells="true" formatColumns="true" formatRows="true" insertColumns="true" insertRows="true" insertHyperlinks="true" deleteColumns="true" deleteRows="true" selectLockedCells="false" sort="true" autoFilter="true" pivotTables="true" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="B37:F40"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="A9:A10"/>
@@ -1375,6 +1348,18 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="B37:F40"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/export_pr1.xlsx
+++ b/export_pr1.xlsx
@@ -35,10 +35,10 @@
     <t>Office/Section :</t>
   </si>
   <si>
-    <t>FAD</t>
-  </si>
-  <si>
-    <t>PR No.:  2020-03-0135</t>
+    <t>LGMED</t>
+  </si>
+  <si>
+    <t>PR No.:  2020-03-0136</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
@@ -65,14 +65,14 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>S780</t>
+    <t>S779</t>
   </si>
   <si>
     <t>set</t>
   </si>
   <si>
-    <t>Meals- Conduct of Orientation on BIR Requirements and Processes Concerning Personnel under Contract of Services and Job Order
-Meal (AM Snacks and Lunch)</t>
+    <t xml:space="preserve">Venue and Meals- Conduct of Interfacing with the DILG, DPWH and concerned LGUs in the Province of Rizal for the Implementation of Public Market and Public Cemetery Projects
+</t>
   </si>
   <si>
     <t>Total</t>
@@ -81,7 +81,7 @@
     <t>Purpose:</t>
   </si>
   <si>
-    <t>Meals during conduct of Orientation on BIR Requirements and Processes Concerning Personnel under Contract of Services and Job Order.</t>
+    <t>Conduct of Interfacing with the DILG, DPWH and Concerned LGUs in the Province of Rizal for the Implementation of Public Market and Public Cemetery Projects</t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -96,7 +96,7 @@
     <t>Printed Name :</t>
   </si>
   <si>
-    <t>DR. CARINA S. CRUZ</t>
+    <t>GILBERTO L. TUMAMAC</t>
   </si>
   <si>
     <t>NOEL R. BARTOLABAC, CESO V</t>
@@ -105,7 +105,7 @@
     <t>Designation :</t>
   </si>
   <si>
-    <t>FAD Chief</t>
+    <t>OIC - LGMED Chief</t>
   </si>
   <si>
     <t>Assistant Regional Director</t>
@@ -1034,13 +1034,13 @@
         <v>18</v>
       </c>
       <c r="D11" s="18">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E11" s="26">
-        <v>425</v>
+        <v>1200</v>
       </c>
       <c r="F11" s="26">
-        <v>1275</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="12" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="F36" s="25">
         <f>SUM(F11:F35)</f>
-        <v>1275</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">

--- a/export_pr1.xlsx
+++ b/export_pr1.xlsx
@@ -35,10 +35,10 @@
     <t>Office/Section :</t>
   </si>
   <si>
-    <t>LGMED</t>
-  </si>
-  <si>
-    <t>PR No.:  2020-03-0136</t>
+    <t>LGCDD</t>
+  </si>
+  <si>
+    <t>PR No.:  2020-02-0098</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
@@ -65,14 +65,14 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>S779</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venue and Meals- Conduct of Interfacing with the DILG, DPWH and concerned LGUs in the Province of Rizal for the Implementation of Public Market and Public Cemetery Projects
-</t>
+    <t>S719</t>
+  </si>
+  <si>
+    <t>pack</t>
+  </si>
+  <si>
+    <t>GAD Quarterly Meeting 
+Meals and Snacks (Breakfast, AM Snacks, Lunch, PM Snacks, Dinner) for GFPS 1st Quarterly Meeting</t>
   </si>
   <si>
     <t>Total</t>
@@ -81,7 +81,7 @@
     <t>Purpose:</t>
   </si>
   <si>
-    <t>Conduct of Interfacing with the DILG, DPWH and Concerned LGUs in the Province of Rizal for the Implementation of Public Market and Public Cemetery Projects</t>
+    <t xml:space="preserve">Regional GFPS 1st Quarterly Meeting for CY 2020 </t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -96,7 +96,7 @@
     <t>Printed Name :</t>
   </si>
   <si>
-    <t>GILBERTO L. TUMAMAC</t>
+    <t>JAY-AR T. BELTRAN</t>
   </si>
   <si>
     <t>NOEL R. BARTOLABAC, CESO V</t>
@@ -105,7 +105,7 @@
     <t>Designation :</t>
   </si>
   <si>
-    <t>OIC - LGMED Chief</t>
+    <t>OIC - LGCDD Chief</t>
   </si>
   <si>
     <t>Assistant Regional Director</t>
@@ -1034,13 +1034,13 @@
         <v>18</v>
       </c>
       <c r="D11" s="18">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E11" s="26">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F11" s="26">
-        <v>42000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="12" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="F36" s="25">
         <f>SUM(F11:F35)</f>
-        <v>42000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">

--- a/export_pr1.xlsx
+++ b/export_pr1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>Appendix 60</t>
   </si>
@@ -38,7 +38,7 @@
     <t>LGCDD</t>
   </si>
   <si>
-    <t>PR No.:  2020-02-0098</t>
+    <t>PR No.:  2020-03-0142</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
@@ -65,14 +65,21 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>S719</t>
-  </si>
-  <si>
-    <t>pack</t>
-  </si>
-  <si>
-    <t>GAD Quarterly Meeting 
-Meals and Snacks (Breakfast, AM Snacks, Lunch, PM Snacks, Dinner) for GFPS 1st Quarterly Meeting</t>
+    <t>S787</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEO Dekalogo Forum (with accommodation)
+</t>
+  </si>
+  <si>
+    <t>S788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEO Dekalogo Forum (without accommodation)
+</t>
   </si>
   <si>
     <t>Total</t>
@@ -81,7 +88,7 @@
     <t>Purpose:</t>
   </si>
   <si>
-    <t xml:space="preserve">Regional GFPS 1st Quarterly Meeting for CY 2020 </t>
+    <t xml:space="preserve">NEO Dekalogo </t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -1034,22 +1041,34 @@
         <v>18</v>
       </c>
       <c r="D11" s="18">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E11" s="26">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F11" s="26">
-        <v>25000</v>
+        <v>64000</v>
       </c>
     </row>
     <row r="12" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
+      <c r="A12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="20">
+        <v>164</v>
+      </c>
+      <c r="E12" s="27">
+        <v>500</v>
+      </c>
+      <c r="F12" s="27">
+        <v>82000</v>
+      </c>
     </row>
     <row r="13" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A13" s="19"/>
@@ -1241,19 +1260,19 @@
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F36" s="25">
         <f>SUM(F11:F35)</f>
-        <v>25000</v>
+        <v>146000</v>
       </c>
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">
       <c r="A37" s="47" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C37" s="42"/>
       <c r="D37" s="42"/>
@@ -1287,18 +1306,18 @@
     <row r="41" spans="1:6" customHeight="1" ht="16.5">
       <c r="A41" s="3"/>
       <c r="B41" s="34" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C41" s="34"/>
       <c r="D41" s="40" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E41" s="40"/>
       <c r="F41" s="41"/>
     </row>
     <row r="42" spans="1:6" customHeight="1" ht="15.75">
       <c r="A42" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
@@ -1308,28 +1327,28 @@
     </row>
     <row r="43" spans="1:6" customHeight="1" ht="15.75">
       <c r="A43" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C43" s="32"/>
       <c r="D43" s="38" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E43" s="38"/>
       <c r="F43" s="39"/>
     </row>
     <row r="44" spans="1:6" customHeight="1" ht="20.25">
       <c r="A44" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C44" s="33"/>
       <c r="D44" s="50" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E44" s="50"/>
       <c r="F44" s="51"/>

--- a/export_pr1.xlsx
+++ b/export_pr1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>Appendix 60</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Office/Section :</t>
   </si>
   <si>
-    <t>LGCDD</t>
-  </si>
-  <si>
-    <t>PR No.:  2020-03-0142</t>
+    <t>LGMED</t>
+  </si>
+  <si>
+    <t>PR No.:  2020-03-0144</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
@@ -65,32 +65,99 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>S787</t>
+    <t>S792</t>
   </si>
   <si>
     <t>piece</t>
   </si>
   <si>
-    <t xml:space="preserve">NEO Dekalogo Forum (with accommodation)
+    <t xml:space="preserve">Illustration Board (1/4)
 </t>
   </si>
   <si>
-    <t>S788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEO Dekalogo Forum (without accommodation)
+    <t>S793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pencil
 </t>
   </si>
   <si>
+    <t>S794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharpener
+</t>
+  </si>
+  <si>
+    <t>S795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marking Pen for binding cover, fine point
+</t>
+  </si>
+  <si>
+    <t>S796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil Pastel
+</t>
+  </si>
+  <si>
+    <t>S797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Color
+</t>
+  </si>
+  <si>
+    <t>S798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cray pas
+</t>
+  </si>
+  <si>
+    <t>S799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acrylic
+</t>
+  </si>
+  <si>
+    <t>S800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pilot Permanent Ink
+</t>
+  </si>
+  <si>
+    <t>S801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixed Media
+</t>
+  </si>
+  <si>
+    <t>S802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spray Paint
+</t>
+  </si>
+  <si>
+    <t>S807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frame (15x20)
+</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
     <t>Purpose:</t>
   </si>
   <si>
-    <t xml:space="preserve">NEO Dekalogo </t>
-  </si>
-  <si>
     <t>Requested by:</t>
   </si>
   <si>
@@ -103,7 +170,7 @@
     <t>Printed Name :</t>
   </si>
   <si>
-    <t>JAY-AR T. BELTRAN</t>
+    <t>JOHN M. CEREZO</t>
   </si>
   <si>
     <t>NOEL R. BARTOLABAC, CESO V</t>
@@ -112,7 +179,7 @@
     <t>Designation :</t>
   </si>
   <si>
-    <t>OIC - LGCDD Chief</t>
+    <t>LGMED Chief</t>
   </si>
   <si>
     <t>Assistant Regional Director</t>
@@ -1030,7 +1097,7 @@
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
     </row>
-    <row r="11" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+    <row r="11" spans="1:6" s="2" customFormat="1">
       <c r="A11" s="17" t="s">
         <v>16</v>
       </c>
@@ -1041,16 +1108,16 @@
         <v>18</v>
       </c>
       <c r="D11" s="18">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E11" s="26">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="F11" s="26">
-        <v>64000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1">
       <c r="A12" s="19" t="s">
         <v>19</v>
       </c>
@@ -1061,94 +1128,214 @@
         <v>20</v>
       </c>
       <c r="D12" s="20">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="E12" s="27">
+        <v>98</v>
+      </c>
+      <c r="F12" s="27">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1">
+      <c r="A13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="20">
+        <v>50</v>
+      </c>
+      <c r="E13" s="27">
+        <v>10</v>
+      </c>
+      <c r="F13" s="27">
         <v>500</v>
       </c>
-      <c r="F12" s="27">
-        <v>82000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-    </row>
-    <row r="14" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-    </row>
-    <row r="15" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-    </row>
-    <row r="16" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-    </row>
-    <row r="17" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-    </row>
-    <row r="18" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-    </row>
-    <row r="19" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-    </row>
-    <row r="20" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-    </row>
-    <row r="21" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-    </row>
-    <row r="22" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1">
+      <c r="A14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="20">
+        <v>50</v>
+      </c>
+      <c r="E14" s="27">
+        <v>48</v>
+      </c>
+      <c r="F14" s="27">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="2" customFormat="1">
+      <c r="A15" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="20">
+        <v>50</v>
+      </c>
+      <c r="E15" s="27">
+        <v>128</v>
+      </c>
+      <c r="F15" s="27">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="2" customFormat="1">
+      <c r="A16" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="20">
+        <v>50</v>
+      </c>
+      <c r="E16" s="27">
+        <v>55</v>
+      </c>
+      <c r="F16" s="27">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1">
+      <c r="A17" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="20">
+        <v>50</v>
+      </c>
+      <c r="E17" s="27">
+        <v>165</v>
+      </c>
+      <c r="F17" s="27">
+        <v>8250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1">
+      <c r="A18" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="20">
+        <v>50</v>
+      </c>
+      <c r="E18" s="27">
+        <v>150</v>
+      </c>
+      <c r="F18" s="27">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="2" customFormat="1">
+      <c r="A19" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="20">
+        <v>50</v>
+      </c>
+      <c r="E19" s="27">
+        <v>175</v>
+      </c>
+      <c r="F19" s="27">
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1">
+      <c r="A20" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="20">
+        <v>50</v>
+      </c>
+      <c r="E20" s="27">
+        <v>65</v>
+      </c>
+      <c r="F20" s="27">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1">
+      <c r="A21" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="20">
+        <v>50</v>
+      </c>
+      <c r="E21" s="27">
+        <v>250</v>
+      </c>
+      <c r="F21" s="27">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="2" customFormat="1">
+      <c r="A22" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="20">
+        <v>1</v>
+      </c>
+      <c r="E22" s="27">
+        <v>2000</v>
+      </c>
+      <c r="F22" s="27">
+        <v>2000</v>
+      </c>
     </row>
     <row r="23" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A23" s="19"/>
@@ -1260,20 +1447,18 @@
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="24" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F36" s="25">
         <f>SUM(F11:F35)</f>
-        <v>146000</v>
+        <v>59280</v>
       </c>
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">
       <c r="A37" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="42" t="s">
-        <v>23</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B37" s="42"/>
       <c r="C37" s="42"/>
       <c r="D37" s="42"/>
       <c r="E37" s="42"/>
@@ -1306,18 +1491,18 @@
     <row r="41" spans="1:6" customHeight="1" ht="16.5">
       <c r="A41" s="3"/>
       <c r="B41" s="34" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C41" s="34"/>
       <c r="D41" s="40" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E41" s="40"/>
       <c r="F41" s="41"/>
     </row>
     <row r="42" spans="1:6" customHeight="1" ht="15.75">
       <c r="A42" s="4" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
@@ -1327,28 +1512,28 @@
     </row>
     <row r="43" spans="1:6" customHeight="1" ht="15.75">
       <c r="A43" s="4" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C43" s="32"/>
       <c r="D43" s="38" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E43" s="38"/>
       <c r="F43" s="39"/>
     </row>
     <row r="44" spans="1:6" customHeight="1" ht="20.25">
       <c r="A44" s="6" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C44" s="33"/>
       <c r="D44" s="50" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E44" s="50"/>
       <c r="F44" s="51"/>

--- a/export_pr1.xlsx
+++ b/export_pr1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>Appendix 60</t>
   </si>
@@ -38,7 +38,7 @@
     <t>LGMED</t>
   </si>
   <si>
-    <t>PR No.:  2020-03-0144</t>
+    <t>PR No.:  2020-02-00104</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
@@ -65,99 +65,32 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>S792</t>
+    <t>S085</t>
   </si>
   <si>
     <t>piece</t>
   </si>
   <si>
-    <t xml:space="preserve">Illustration Board (1/4)
+    <t xml:space="preserve">Load card (globe 100)
 </t>
   </si>
   <si>
-    <t>S793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pencil
+    <t>S098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load card (smart 100)
 </t>
   </si>
   <si>
-    <t>S794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sharpener
-</t>
-  </si>
-  <si>
-    <t>S795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marking Pen for binding cover, fine point
-</t>
-  </si>
-  <si>
-    <t>S796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil Pastel
-</t>
-  </si>
-  <si>
-    <t>S797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Color
-</t>
-  </si>
-  <si>
-    <t>S798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cray pas
-</t>
-  </si>
-  <si>
-    <t>S799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acrylic
-</t>
-  </si>
-  <si>
-    <t>S800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilot Permanent Ink
-</t>
-  </si>
-  <si>
-    <t>S801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mixed Media
-</t>
-  </si>
-  <si>
-    <t>S802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spray Paint
-</t>
-  </si>
-  <si>
-    <t>S807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frame (15x20)
-</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
     <t>Purpose:</t>
   </si>
   <si>
+    <t xml:space="preserve">LCPC FUNCTIONALITY ASSESSMENT 2020  </t>
+  </si>
+  <si>
     <t>Requested by:</t>
   </si>
   <si>
@@ -170,7 +103,7 @@
     <t>Printed Name :</t>
   </si>
   <si>
-    <t>JOHN M. CEREZO</t>
+    <t>GILBERTO L. TUMAMAC</t>
   </si>
   <si>
     <t>NOEL R. BARTOLABAC, CESO V</t>
@@ -179,7 +112,7 @@
     <t>Designation :</t>
   </si>
   <si>
-    <t>LGMED Chief</t>
+    <t>OIC - LGMED Chief</t>
   </si>
   <si>
     <t>Assistant Regional Director</t>
@@ -1108,13 +1041,13 @@
         <v>18</v>
       </c>
       <c r="D11" s="18">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E11" s="26">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F11" s="26">
-        <v>4000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1">
@@ -1128,214 +1061,94 @@
         <v>20</v>
       </c>
       <c r="D12" s="20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E12" s="27">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F12" s="27">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1">
-      <c r="A13" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="20">
-        <v>50</v>
-      </c>
-      <c r="E13" s="27">
-        <v>10</v>
-      </c>
-      <c r="F13" s="27">
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1">
-      <c r="A14" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="20">
-        <v>50</v>
-      </c>
-      <c r="E14" s="27">
-        <v>48</v>
-      </c>
-      <c r="F14" s="27">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="2" customFormat="1">
-      <c r="A15" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="20">
-        <v>50</v>
-      </c>
-      <c r="E15" s="27">
-        <v>128</v>
-      </c>
-      <c r="F15" s="27">
-        <v>6400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="2" customFormat="1">
-      <c r="A16" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="20">
-        <v>50</v>
-      </c>
-      <c r="E16" s="27">
-        <v>55</v>
-      </c>
-      <c r="F16" s="27">
-        <v>2750</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
-      <c r="A17" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="20">
-        <v>50</v>
-      </c>
-      <c r="E17" s="27">
-        <v>165</v>
-      </c>
-      <c r="F17" s="27">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="2" customFormat="1">
-      <c r="A18" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="20">
-        <v>50</v>
-      </c>
-      <c r="E18" s="27">
-        <v>150</v>
-      </c>
-      <c r="F18" s="27">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="2" customFormat="1">
-      <c r="A19" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="20">
-        <v>50</v>
-      </c>
-      <c r="E19" s="27">
-        <v>175</v>
-      </c>
-      <c r="F19" s="27">
-        <v>8750</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="2" customFormat="1">
-      <c r="A20" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="20">
-        <v>50</v>
-      </c>
-      <c r="E20" s="27">
-        <v>65</v>
-      </c>
-      <c r="F20" s="27">
-        <v>3250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="2" customFormat="1">
-      <c r="A21" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="20">
-        <v>50</v>
-      </c>
-      <c r="E21" s="27">
-        <v>250</v>
-      </c>
-      <c r="F21" s="27">
-        <v>12500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="2" customFormat="1">
-      <c r="A22" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="20">
-        <v>1</v>
-      </c>
-      <c r="E22" s="27">
-        <v>2000</v>
-      </c>
-      <c r="F22" s="27">
-        <v>2000</v>
-      </c>
+    <row r="13" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+    </row>
+    <row r="14" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+    </row>
+    <row r="15" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+    </row>
+    <row r="16" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+    </row>
+    <row r="17" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+    </row>
+    <row r="19" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+    </row>
+    <row r="20" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+    </row>
+    <row r="21" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+    </row>
+    <row r="22" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A23" s="19"/>
@@ -1447,18 +1260,20 @@
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="24" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F36" s="25">
         <f>SUM(F11:F35)</f>
-        <v>59280</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">
       <c r="A37" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="42"/>
+        <v>22</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>23</v>
+      </c>
       <c r="C37" s="42"/>
       <c r="D37" s="42"/>
       <c r="E37" s="42"/>
@@ -1491,18 +1306,18 @@
     <row r="41" spans="1:6" customHeight="1" ht="16.5">
       <c r="A41" s="3"/>
       <c r="B41" s="34" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C41" s="34"/>
       <c r="D41" s="40" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E41" s="40"/>
       <c r="F41" s="41"/>
     </row>
     <row r="42" spans="1:6" customHeight="1" ht="15.75">
       <c r="A42" s="4" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
@@ -1512,28 +1327,28 @@
     </row>
     <row r="43" spans="1:6" customHeight="1" ht="15.75">
       <c r="A43" s="4" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C43" s="32"/>
       <c r="D43" s="38" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E43" s="38"/>
       <c r="F43" s="39"/>
     </row>
     <row r="44" spans="1:6" customHeight="1" ht="20.25">
       <c r="A44" s="6" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C44" s="33"/>
       <c r="D44" s="50" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E44" s="50"/>
       <c r="F44" s="51"/>

--- a/export_pr1.xlsx
+++ b/export_pr1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>Appendix 60</t>
   </si>
@@ -38,7 +38,7 @@
     <t>LGMED</t>
   </si>
   <si>
-    <t>PR No.:  2020-02-00104</t>
+    <t>PR No.:  2020-03-0136</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
@@ -65,30 +65,23 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>S085</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load card (globe 100)
+    <t>S779</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venue and Meals- Conduct of Interfacing with the DILG, DPWH and concerned LGUs in the Province of Rizal for the Implementation of Public Market and Public Cemetery Projects
 </t>
   </si>
   <si>
-    <t>S098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load card (smart 100)
-</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
     <t>Purpose:</t>
   </si>
   <si>
-    <t xml:space="preserve">LCPC FUNCTIONALITY ASSESSMENT 2020  </t>
+    <t>Conduct of Interfacing with the DILG, DPWH and Concerned LGUs in the Province of Rizal for the Implementation of Public Market and Public Cemetery Projects</t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -341,19 +334,19 @@
       </bottom>
     </border>
     <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -480,6 +473,30 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
@@ -488,124 +505,100 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="3"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
   </cellXfs>
@@ -911,7 +904,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -926,10 +919,10 @@
   <sheetData>
     <row r="1" spans="1:6" customHeight="1" ht="15.75">
       <c r="A1" s="1"/>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="52"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:6" customHeight="1" ht="18.75">
       <c r="A2" s="1"/>
@@ -937,30 +930,30 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" customHeight="1" ht="18.75">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:6" customHeight="1" ht="18.75">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
     </row>
     <row r="5" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
     </row>
     <row r="6" spans="1:6" customHeight="1" ht="21" s="7" customFormat="1">
       <c r="A6" s="8" t="s">
@@ -970,11 +963,11 @@
         <v>3</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:6" customHeight="1" ht="18" s="7" customFormat="1">
       <c r="A7" s="14" t="s">
@@ -987,14 +980,14 @@
         <v>7</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="61"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:6" customHeight="1" ht="30.75" s="7" customFormat="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="57"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="15" t="s">
         <v>9</v>
       </c>
@@ -1003,32 +996,32 @@
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" customHeight="1" ht="16.5" s="7" customFormat="1">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="36" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" customHeight="1" ht="15.75" s="7" customFormat="1">
-      <c r="A10" s="55"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1">
       <c r="A11" s="17" t="s">
@@ -1041,34 +1034,22 @@
         <v>18</v>
       </c>
       <c r="D11" s="18">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E11" s="26">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="F11" s="26">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1">
-      <c r="A12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="20">
-        <v>5</v>
-      </c>
-      <c r="E12" s="27">
-        <v>100</v>
-      </c>
-      <c r="F12" s="27">
-        <v>500</v>
-      </c>
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A13" s="19"/>
@@ -1260,102 +1241,115 @@
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F36" s="25">
         <f>SUM(F11:F35)</f>
-        <v>1000</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A37" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="43"/>
+      <c r="A37" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="49"/>
     </row>
     <row r="38" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A38" s="48"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="45"/>
+      <c r="A38" s="55"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="51"/>
     </row>
     <row r="39" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A39" s="48"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="45"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="51"/>
     </row>
     <row r="40" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A40" s="49"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="46"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="53"/>
     </row>
     <row r="41" spans="1:6" customHeight="1" ht="16.5">
       <c r="A41" s="3"/>
-      <c r="B41" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" s="40"/>
-      <c r="F41" s="41"/>
+      <c r="B41" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="60"/>
+      <c r="D41" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="46"/>
+      <c r="F41" s="47"/>
     </row>
     <row r="42" spans="1:6" customHeight="1" ht="15.75">
       <c r="A42" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="37"/>
+        <v>24</v>
+      </c>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="43"/>
     </row>
     <row r="43" spans="1:6" customHeight="1" ht="15.75">
       <c r="A43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="59"/>
+      <c r="D43" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" s="38"/>
-      <c r="F43" s="39"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="45"/>
     </row>
     <row r="44" spans="1:6" customHeight="1" ht="20.25">
       <c r="A44" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="52"/>
+      <c r="D44" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" s="33"/>
-      <c r="D44" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="50"/>
-      <c r="F44" s="51"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="58"/>
     </row>
   </sheetData>
   <sheetProtection password="DD3C" sheet="true" objects="false" scenarios="false" formatCells="true" formatColumns="true" formatRows="true" insertColumns="true" insertRows="true" insertHyperlinks="true" deleteColumns="true" deleteRows="true" selectLockedCells="false" sort="true" autoFilter="true" pivotTables="true" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="B37:F40"/>
+    <mergeCell ref="A37:A40"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="D6:F6"/>
@@ -1366,19 +1360,6 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="B37:F40"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/export_pr1.xlsx
+++ b/export_pr1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>Appendix 60</t>
   </si>
@@ -38,7 +38,7 @@
     <t>LGMED</t>
   </si>
   <si>
-    <t>PR No.:  2020-03-0136</t>
+    <t>PR No.:  2020-03-0145</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
@@ -65,23 +65,30 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>S779</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venue and Meals- Conduct of Interfacing with the DILG, DPWH and concerned LGUs in the Province of Rizal for the Implementation of Public Market and Public Cemetery Projects
+    <t>S862</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarpaulin (8x6)
 </t>
   </si>
   <si>
+    <t>S803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarpaulin (14x8)
+</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
     <t>Purpose:</t>
   </si>
   <si>
-    <t>Conduct of Interfacing with the DILG, DPWH and Concerned LGUs in the Province of Rizal for the Implementation of Public Market and Public Cemetery Projects</t>
+    <t>ECLIP Poster Making Contest</t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -1034,22 +1041,34 @@
         <v>18</v>
       </c>
       <c r="D11" s="18">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E11" s="26">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="F11" s="26">
-        <v>42000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1">
+      <c r="A12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="20">
+        <v>1</v>
+      </c>
+      <c r="E12" s="27">
+        <v>2500</v>
+      </c>
+      <c r="F12" s="27">
+        <v>2500</v>
+      </c>
     </row>
     <row r="13" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A13" s="19"/>
@@ -1241,19 +1260,19 @@
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F36" s="25">
         <f>SUM(F11:F35)</f>
-        <v>42000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">
       <c r="A37" s="54" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C37" s="48"/>
       <c r="D37" s="48"/>
@@ -1287,18 +1306,18 @@
     <row r="41" spans="1:6" customHeight="1" ht="16.5">
       <c r="A41" s="3"/>
       <c r="B41" s="60" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C41" s="60"/>
       <c r="D41" s="46" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E41" s="46"/>
       <c r="F41" s="47"/>
     </row>
     <row r="42" spans="1:6" customHeight="1" ht="15.75">
       <c r="A42" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B42" s="61"/>
       <c r="C42" s="61"/>
@@ -1308,28 +1327,28 @@
     </row>
     <row r="43" spans="1:6" customHeight="1" ht="15.75">
       <c r="A43" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B43" s="59" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C43" s="59"/>
       <c r="D43" s="44" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E43" s="44"/>
       <c r="F43" s="45"/>
     </row>
     <row r="44" spans="1:6" customHeight="1" ht="20.25">
       <c r="A44" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C44" s="52"/>
       <c r="D44" s="57" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E44" s="57"/>
       <c r="F44" s="58"/>

--- a/export_pr1.xlsx
+++ b/export_pr1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
   <si>
     <t>Appendix 60</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Office/Section :</t>
   </si>
   <si>
-    <t>LGMED</t>
-  </si>
-  <si>
-    <t>PR No.:  2020-03-0145</t>
+    <t>LGCDD-MBRTG</t>
+  </si>
+  <si>
+    <t>PR No.:  2020-03-0158</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
@@ -65,30 +65,196 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>S862</t>
+    <t>S537</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>Refillable Ink Tank Wireless All-In-One with Fax for High Volume Printing
+Print, Scan, Copy, FaxISO Standard print speed (A4): up to 8.8 ipm black / 5.0 ipm colourHi-speed USB 2.0, Wireless, Mopria, AirPrint, Direct WirelessRecommended print volume: 150 - 1500 pages</t>
+  </si>
+  <si>
+    <t>S572</t>
   </si>
   <si>
     <t>piece</t>
   </si>
   <si>
-    <t xml:space="preserve">Tarpaulin (8x6)
+    <t>Mobile pedestal, steel with PVC top, with 2 side drawer and 1 filing drawer, with central lock, with center wheel and twin caster, powder coated finish, gauge 22, color: light gray or beige, Dimension: 40 (W) x 56 (D) x 65 (H) cm
+steel with PVC top, with 2 side drawer and 1 filing drawer, with central lock, with center wheel and twin caster, powder coated finish, gauge 22, color: light gray or beige, Dimension: 40 (W) x 56 (D) x 65 (H) cm</t>
+  </si>
+  <si>
+    <t>S837</t>
+  </si>
+  <si>
+    <t>bottle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ink Cartridge for Canon Pixma iX6560, 726 (Colored)
 </t>
   </si>
   <si>
-    <t>S803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarpaulin (14x8)
+    <t>S836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ink Cartridge for Canon Pixma iX6560, 750 (PGblack)
 </t>
   </si>
   <si>
+    <t>S838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ink Cartridge for Canon Pixma iX6560, 751 (Black)
+</t>
+  </si>
+  <si>
+    <t>S839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ink for Canon Pixma G4010, (Black)
+</t>
+  </si>
+  <si>
+    <t>S840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ink for Canon Pixma G4010, (Cyan)
+</t>
+  </si>
+  <si>
+    <t>S841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ink for Canon Pixma G4010, (Magenta)
+</t>
+  </si>
+  <si>
+    <t>S842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ink for Canon Pixma G4010, (Yellow)
+</t>
+  </si>
+  <si>
+    <t>S505</t>
+  </si>
+  <si>
+    <t>ream</t>
+  </si>
+  <si>
+    <t>Copy Paper, 80gsm, size A4, 500sheets
+80gsm, size A4, 500sheets</t>
+  </si>
+  <si>
+    <t>S234</t>
+  </si>
+  <si>
+    <t>Sticker Paper, A4, white, 10shts/pack
+ A4, white, 10shts/pack</t>
+  </si>
+  <si>
+    <t>S843</t>
+  </si>
+  <si>
+    <t>Double adhesive tape, 1x10 yards, without foam
+1x10 yards, without foam</t>
+  </si>
+  <si>
+    <t>S845</t>
+  </si>
+  <si>
+    <t>Scotch Tape, Clear
+clear</t>
+  </si>
+  <si>
+    <t>S846</t>
+  </si>
+  <si>
+    <t>Glue gun, big
+big, heavy duty</t>
+  </si>
+  <si>
+    <t>S847</t>
+  </si>
+  <si>
+    <t>pack</t>
+  </si>
+  <si>
+    <t>Glue stick, Big,pack
+for big glue gun</t>
+  </si>
+  <si>
+    <t>S513</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>Paper Fastener, plastic, 50pcs/box
+plastic</t>
+  </si>
+  <si>
+    <t>S848</t>
+  </si>
+  <si>
+    <t>Scissors, (10)
+10" scissors</t>
+  </si>
+  <si>
+    <t>S849</t>
+  </si>
+  <si>
+    <t>Staple wire, 210 staples, no. 35,box
+210 staples, no. 35</t>
+  </si>
+  <si>
+    <t>S517</t>
+  </si>
+  <si>
+    <t>Tab, arrow flags, 10x48mm, 25shts/set, 7 colors/pack
+10x48mm, 25shts/set, 7 colors</t>
+  </si>
+  <si>
+    <t>S852</t>
+  </si>
+  <si>
+    <t>Glue, white, 225grm,bottle
+white, 225grm,bottle</t>
+  </si>
+  <si>
+    <t>S854</t>
+  </si>
+  <si>
+    <t>Folder with clear cover (A4 size)
+clear cover (A4 size)</t>
+  </si>
+  <si>
+    <t>S855</t>
+  </si>
+  <si>
+    <t>Expandable Folder (Legal size)
+legal size, same colors</t>
+  </si>
+  <si>
+    <t>S856</t>
+  </si>
+  <si>
+    <t>Laminating film (A4 size)
+A4 size</t>
+  </si>
+  <si>
+    <t>S861</t>
+  </si>
+  <si>
+    <t>Stapler
+medium size</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
     <t>Purpose:</t>
-  </si>
-  <si>
-    <t>ECLIP Poster Making Contest</t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -1044,10 +1210,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="26">
-        <v>2500</v>
+        <v>14995</v>
       </c>
       <c r="F11" s="26">
-        <v>2500</v>
+        <v>14995</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1">
@@ -1055,196 +1221,456 @@
         <v>19</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C12" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="20">
+        <v>2</v>
+      </c>
+      <c r="E12" s="27">
+        <v>5000</v>
+      </c>
+      <c r="F12" s="27">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1">
+      <c r="A13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="20">
+        <v>3</v>
+      </c>
+      <c r="E13" s="27">
+        <v>800</v>
+      </c>
+      <c r="F13" s="27">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1">
+      <c r="A14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="20">
+        <v>3</v>
+      </c>
+      <c r="E14" s="27">
+        <v>800</v>
+      </c>
+      <c r="F14" s="27">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="2" customFormat="1">
+      <c r="A15" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="20">
+        <v>3</v>
+      </c>
+      <c r="E15" s="27">
+        <v>800</v>
+      </c>
+      <c r="F15" s="27">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="2" customFormat="1">
+      <c r="A16" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="20">
+        <v>2</v>
+      </c>
+      <c r="E16" s="27">
+        <v>500</v>
+      </c>
+      <c r="F16" s="27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1">
+      <c r="A17" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="20">
+        <v>2</v>
+      </c>
+      <c r="E17" s="27">
+        <v>500</v>
+      </c>
+      <c r="F17" s="27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1">
+      <c r="A18" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="20">
+        <v>2</v>
+      </c>
+      <c r="E18" s="27">
+        <v>500</v>
+      </c>
+      <c r="F18" s="27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="2" customFormat="1">
+      <c r="A19" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="20">
+        <v>2</v>
+      </c>
+      <c r="E19" s="27">
+        <v>500</v>
+      </c>
+      <c r="F19" s="27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1">
+      <c r="A20" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="20">
+        <v>10</v>
+      </c>
+      <c r="E20" s="27">
+        <v>300</v>
+      </c>
+      <c r="F20" s="27">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1">
+      <c r="A21" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="20">
+        <v>5</v>
+      </c>
+      <c r="E21" s="27">
+        <v>100</v>
+      </c>
+      <c r="F21" s="27">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="2" customFormat="1">
+      <c r="A22" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="20">
-        <v>1</v>
-      </c>
-      <c r="E12" s="27">
-        <v>2500</v>
-      </c>
-      <c r="F12" s="27">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-    </row>
-    <row r="14" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-    </row>
-    <row r="15" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-    </row>
-    <row r="16" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-    </row>
-    <row r="17" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-    </row>
-    <row r="18" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-    </row>
-    <row r="19" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-    </row>
-    <row r="20" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-    </row>
-    <row r="21" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-    </row>
-    <row r="22" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-    </row>
-    <row r="23" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-    </row>
-    <row r="24" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-    </row>
-    <row r="25" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-    </row>
-    <row r="26" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-    </row>
-    <row r="27" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-    </row>
-    <row r="28" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-    </row>
-    <row r="29" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A29" s="19"/>
+      <c r="C22" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="20">
+        <v>5</v>
+      </c>
+      <c r="E22" s="27">
+        <v>50</v>
+      </c>
+      <c r="F22" s="27">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="2" customFormat="1">
+      <c r="A23" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="20">
+        <v>5</v>
+      </c>
+      <c r="E23" s="27">
+        <v>50</v>
+      </c>
+      <c r="F23" s="27">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="2" customFormat="1">
+      <c r="A24" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="20">
+        <v>2</v>
+      </c>
+      <c r="E24" s="27">
+        <v>500</v>
+      </c>
+      <c r="F24" s="27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="2" customFormat="1">
+      <c r="A25" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="20">
+        <v>9</v>
+      </c>
+      <c r="E25" s="27">
+        <v>30</v>
+      </c>
+      <c r="F25" s="27">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="2" customFormat="1">
+      <c r="A26" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="20">
+        <v>5</v>
+      </c>
+      <c r="E26" s="27">
+        <v>50</v>
+      </c>
+      <c r="F26" s="27">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="2" customFormat="1">
+      <c r="A27" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="20">
+        <v>5</v>
+      </c>
+      <c r="E27" s="27">
+        <v>150</v>
+      </c>
+      <c r="F27" s="27">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="2" customFormat="1">
+      <c r="A28" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="20">
+        <v>5</v>
+      </c>
+      <c r="E28" s="27">
+        <v>50</v>
+      </c>
+      <c r="F28" s="27">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="2" customFormat="1">
+      <c r="A29" s="19" t="s">
+        <v>58</v>
+      </c>
       <c r="B29" s="20"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-    </row>
-    <row r="30" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A30" s="19"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-    </row>
-    <row r="31" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-    </row>
-    <row r="32" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-    </row>
-    <row r="33" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-    </row>
-    <row r="34" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
-      <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
+      <c r="C29" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="20">
+        <v>10</v>
+      </c>
+      <c r="E29" s="27">
+        <v>20</v>
+      </c>
+      <c r="F29" s="27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="2" customFormat="1">
+      <c r="A30" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="20">
+        <v>3</v>
+      </c>
+      <c r="E30" s="27">
+        <v>110</v>
+      </c>
+      <c r="F30" s="27">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="2" customFormat="1">
+      <c r="A31" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="20">
+        <v>50</v>
+      </c>
+      <c r="E31" s="27">
+        <v>20</v>
+      </c>
+      <c r="F31" s="27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="2" customFormat="1">
+      <c r="A32" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="20">
+        <v>50</v>
+      </c>
+      <c r="E32" s="27">
+        <v>30</v>
+      </c>
+      <c r="F32" s="27">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="2" customFormat="1">
+      <c r="A33" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="20">
+        <v>5</v>
+      </c>
+      <c r="E33" s="27">
+        <v>150</v>
+      </c>
+      <c r="F33" s="27">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="2" customFormat="1">
+      <c r="A34" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="20">
+        <v>5</v>
+      </c>
+      <c r="E34" s="27">
+        <v>100</v>
+      </c>
+      <c r="F34" s="27">
+        <v>500</v>
+      </c>
     </row>
     <row r="35" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A35" s="19"/>
@@ -1260,20 +1686,18 @@
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="24" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="F36" s="25">
         <f>SUM(F11:F35)</f>
-        <v>5000</v>
+        <v>46995</v>
       </c>
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">
       <c r="A37" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="48" t="s">
-        <v>23</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B37" s="48"/>
       <c r="C37" s="48"/>
       <c r="D37" s="48"/>
       <c r="E37" s="48"/>
@@ -1306,18 +1730,18 @@
     <row r="41" spans="1:6" customHeight="1" ht="16.5">
       <c r="A41" s="3"/>
       <c r="B41" s="60" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="C41" s="60"/>
       <c r="D41" s="46" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="E41" s="46"/>
       <c r="F41" s="47"/>
     </row>
     <row r="42" spans="1:6" customHeight="1" ht="15.75">
       <c r="A42" s="4" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="B42" s="61"/>
       <c r="C42" s="61"/>
@@ -1327,28 +1751,28 @@
     </row>
     <row r="43" spans="1:6" customHeight="1" ht="15.75">
       <c r="A43" s="4" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="B43" s="59" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="C43" s="59"/>
       <c r="D43" s="44" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="E43" s="44"/>
       <c r="F43" s="45"/>
     </row>
     <row r="44" spans="1:6" customHeight="1" ht="20.25">
       <c r="A44" s="6" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="C44" s="52"/>
       <c r="D44" s="57" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="E44" s="57"/>
       <c r="F44" s="58"/>

--- a/export_pr1.xlsx
+++ b/export_pr1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>Appendix 60</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Office/Section :</t>
   </si>
   <si>
-    <t>LGCDD-MBRTG</t>
-  </si>
-  <si>
-    <t>PR No.:  2020-03-0158</t>
+    <t>ORD</t>
+  </si>
+  <si>
+    <t>PR No.:  2020-0014</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
@@ -65,190 +65,14 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>S537</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>Refillable Ink Tank Wireless All-In-One with Fax for High Volume Printing
-Print, Scan, Copy, FaxISO Standard print speed (A4): up to 8.8 ipm black / 5.0 ipm colourHi-speed USB 2.0, Wireless, Mopria, AirPrint, Direct WirelessRecommended print volume: 150 - 1500 pages</t>
-  </si>
-  <si>
-    <t>S572</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>Mobile pedestal, steel with PVC top, with 2 side drawer and 1 filing drawer, with central lock, with center wheel and twin caster, powder coated finish, gauge 22, color: light gray or beige, Dimension: 40 (W) x 56 (D) x 65 (H) cm
-steel with PVC top, with 2 side drawer and 1 filing drawer, with central lock, with center wheel and twin caster, powder coated finish, gauge 22, color: light gray or beige, Dimension: 40 (W) x 56 (D) x 65 (H) cm</t>
-  </si>
-  <si>
-    <t>S837</t>
-  </si>
-  <si>
-    <t>bottle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ink Cartridge for Canon Pixma iX6560, 726 (Colored)
-</t>
-  </si>
-  <si>
-    <t>S836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ink Cartridge for Canon Pixma iX6560, 750 (PGblack)
-</t>
-  </si>
-  <si>
-    <t>S838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ink Cartridge for Canon Pixma iX6560, 751 (Black)
-</t>
-  </si>
-  <si>
-    <t>S839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ink for Canon Pixma G4010, (Black)
-</t>
-  </si>
-  <si>
-    <t>S840</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ink for Canon Pixma G4010, (Cyan)
-</t>
-  </si>
-  <si>
-    <t>S841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ink for Canon Pixma G4010, (Magenta)
-</t>
-  </si>
-  <si>
-    <t>S842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ink for Canon Pixma G4010, (Yellow)
-</t>
-  </si>
-  <si>
-    <t>S505</t>
-  </si>
-  <si>
-    <t>ream</t>
-  </si>
-  <si>
-    <t>Copy Paper, 80gsm, size A4, 500sheets
-80gsm, size A4, 500sheets</t>
-  </si>
-  <si>
-    <t>S234</t>
-  </si>
-  <si>
-    <t>Sticker Paper, A4, white, 10shts/pack
- A4, white, 10shts/pack</t>
-  </si>
-  <si>
-    <t>S843</t>
-  </si>
-  <si>
-    <t>Double adhesive tape, 1x10 yards, without foam
-1x10 yards, without foam</t>
-  </si>
-  <si>
-    <t>S845</t>
-  </si>
-  <si>
-    <t>Scotch Tape, Clear
-clear</t>
-  </si>
-  <si>
-    <t>S846</t>
-  </si>
-  <si>
-    <t>Glue gun, big
-big, heavy duty</t>
-  </si>
-  <si>
-    <t>S847</t>
-  </si>
-  <si>
-    <t>pack</t>
-  </si>
-  <si>
-    <t>Glue stick, Big,pack
-for big glue gun</t>
-  </si>
-  <si>
-    <t>S513</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>Paper Fastener, plastic, 50pcs/box
-plastic</t>
-  </si>
-  <si>
-    <t>S848</t>
-  </si>
-  <si>
-    <t>Scissors, (10)
-10" scissors</t>
-  </si>
-  <si>
-    <t>S849</t>
-  </si>
-  <si>
-    <t>Staple wire, 210 staples, no. 35,box
-210 staples, no. 35</t>
-  </si>
-  <si>
-    <t>S517</t>
-  </si>
-  <si>
-    <t>Tab, arrow flags, 10x48mm, 25shts/set, 7 colors/pack
-10x48mm, 25shts/set, 7 colors</t>
-  </si>
-  <si>
-    <t>S852</t>
-  </si>
-  <si>
-    <t>Glue, white, 225grm,bottle
-white, 225grm,bottle</t>
-  </si>
-  <si>
-    <t>S854</t>
-  </si>
-  <si>
-    <t>Folder with clear cover (A4 size)
-clear cover (A4 size)</t>
-  </si>
-  <si>
-    <t>S855</t>
-  </si>
-  <si>
-    <t>Expandable Folder (Legal size)
-legal size, same colors</t>
-  </si>
-  <si>
-    <t>S856</t>
-  </si>
-  <si>
-    <t>Laminating film (A4 size)
-A4 size</t>
-  </si>
-  <si>
-    <t>S861</t>
-  </si>
-  <si>
-    <t>Stapler
-medium size</t>
+    <t>S015</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>Regional Team Conference
+Venue and Meals (Breakfast, AM Snacks, Lunch, PM Snacks)</t>
   </si>
   <si>
     <t>Total</t>
@@ -257,6 +81,9 @@
     <t>Purpose:</t>
   </si>
   <si>
+    <t xml:space="preserve"> For the conduct of 1st Quarter Regional Team cum Planning Conference      </t>
+  </si>
+  <si>
     <t>Requested by:</t>
   </si>
   <si>
@@ -269,7 +96,7 @@
     <t>Printed Name :</t>
   </si>
   <si>
-    <t>GILBERTO L. TUMAMAC</t>
+    <t>ELIAS F. FERNANDEZ, JR.</t>
   </si>
   <si>
     <t>NOEL R. BARTOLABAC, CESO V</t>
@@ -278,7 +105,7 @@
     <t>Designation :</t>
   </si>
   <si>
-    <t>OIC - LGMED Chief</t>
+    <t>OIC - Regional Director</t>
   </si>
   <si>
     <t>Assistant Regional Director</t>
@@ -1207,470 +1034,198 @@
         <v>18</v>
       </c>
       <c r="D11" s="18">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E11" s="26">
-        <v>14995</v>
+        <v>1200</v>
       </c>
       <c r="F11" s="26">
-        <v>14995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1">
-      <c r="A12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="20">
-        <v>2</v>
-      </c>
-      <c r="E12" s="27">
-        <v>5000</v>
-      </c>
-      <c r="F12" s="27">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1">
-      <c r="A13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="20">
-        <v>3</v>
-      </c>
-      <c r="E13" s="27">
-        <v>800</v>
-      </c>
-      <c r="F13" s="27">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1">
-      <c r="A14" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="20">
-        <v>3</v>
-      </c>
-      <c r="E14" s="27">
-        <v>800</v>
-      </c>
-      <c r="F14" s="27">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="2" customFormat="1">
-      <c r="A15" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="20">
-        <v>3</v>
-      </c>
-      <c r="E15" s="27">
-        <v>800</v>
-      </c>
-      <c r="F15" s="27">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="2" customFormat="1">
-      <c r="A16" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="20">
-        <v>2</v>
-      </c>
-      <c r="E16" s="27">
-        <v>500</v>
-      </c>
-      <c r="F16" s="27">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
-      <c r="A17" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="20">
-        <v>2</v>
-      </c>
-      <c r="E17" s="27">
-        <v>500</v>
-      </c>
-      <c r="F17" s="27">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="2" customFormat="1">
-      <c r="A18" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="20">
-        <v>2</v>
-      </c>
-      <c r="E18" s="27">
-        <v>500</v>
-      </c>
-      <c r="F18" s="27">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="2" customFormat="1">
-      <c r="A19" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="20">
-        <v>2</v>
-      </c>
-      <c r="E19" s="27">
-        <v>500</v>
-      </c>
-      <c r="F19" s="27">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="2" customFormat="1">
-      <c r="A20" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="20">
-        <v>10</v>
-      </c>
-      <c r="E20" s="27">
-        <v>300</v>
-      </c>
-      <c r="F20" s="27">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="2" customFormat="1">
-      <c r="A21" s="19" t="s">
-        <v>40</v>
-      </c>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+    </row>
+    <row r="13" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+    </row>
+    <row r="14" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+    </row>
+    <row r="15" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+    </row>
+    <row r="16" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+    </row>
+    <row r="17" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+    </row>
+    <row r="19" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+    </row>
+    <row r="20" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+    </row>
+    <row r="21" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A21" s="19"/>
       <c r="B21" s="20"/>
-      <c r="C21" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="20">
-        <v>5</v>
-      </c>
-      <c r="E21" s="27">
-        <v>100</v>
-      </c>
-      <c r="F21" s="27">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="2" customFormat="1">
-      <c r="A22" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="20">
-        <v>5</v>
-      </c>
-      <c r="E22" s="27">
-        <v>50</v>
-      </c>
-      <c r="F22" s="27">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="2" customFormat="1">
-      <c r="A23" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="20">
-        <v>5</v>
-      </c>
-      <c r="E23" s="27">
-        <v>50</v>
-      </c>
-      <c r="F23" s="27">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="2" customFormat="1">
-      <c r="A24" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="20">
-        <v>2</v>
-      </c>
-      <c r="E24" s="27">
-        <v>500</v>
-      </c>
-      <c r="F24" s="27">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="2" customFormat="1">
-      <c r="A25" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="20">
-        <v>9</v>
-      </c>
-      <c r="E25" s="27">
-        <v>30</v>
-      </c>
-      <c r="F25" s="27">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="2" customFormat="1">
-      <c r="A26" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="20">
-        <v>5</v>
-      </c>
-      <c r="E26" s="27">
-        <v>50</v>
-      </c>
-      <c r="F26" s="27">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="2" customFormat="1">
-      <c r="A27" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="20">
-        <v>5</v>
-      </c>
-      <c r="E27" s="27">
-        <v>150</v>
-      </c>
-      <c r="F27" s="27">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
-      <c r="A28" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="20">
-        <v>5</v>
-      </c>
-      <c r="E28" s="27">
-        <v>50</v>
-      </c>
-      <c r="F28" s="27">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="2" customFormat="1">
-      <c r="A29" s="19" t="s">
-        <v>58</v>
-      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+    </row>
+    <row r="22" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+    </row>
+    <row r="23" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+    </row>
+    <row r="24" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+    </row>
+    <row r="25" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+    </row>
+    <row r="26" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+    </row>
+    <row r="27" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+    </row>
+    <row r="28" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+    </row>
+    <row r="29" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A29" s="19"/>
       <c r="B29" s="20"/>
-      <c r="C29" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="20">
-        <v>10</v>
-      </c>
-      <c r="E29" s="27">
-        <v>20</v>
-      </c>
-      <c r="F29" s="27">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="2" customFormat="1">
-      <c r="A30" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="20">
-        <v>3</v>
-      </c>
-      <c r="E30" s="27">
-        <v>110</v>
-      </c>
-      <c r="F30" s="27">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="2" customFormat="1">
-      <c r="A31" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="20">
-        <v>50</v>
-      </c>
-      <c r="E31" s="27">
-        <v>20</v>
-      </c>
-      <c r="F31" s="27">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="2" customFormat="1">
-      <c r="A32" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="20">
-        <v>50</v>
-      </c>
-      <c r="E32" s="27">
-        <v>30</v>
-      </c>
-      <c r="F32" s="27">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="2" customFormat="1">
-      <c r="A33" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="20">
-        <v>5</v>
-      </c>
-      <c r="E33" s="27">
-        <v>150</v>
-      </c>
-      <c r="F33" s="27">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="2" customFormat="1">
-      <c r="A34" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="20">
-        <v>5</v>
-      </c>
-      <c r="E34" s="27">
-        <v>100</v>
-      </c>
-      <c r="F34" s="27">
-        <v>500</v>
-      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+    </row>
+    <row r="30" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+    </row>
+    <row r="31" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+    </row>
+    <row r="32" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A32" s="19"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+    </row>
+    <row r="33" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A33" s="19"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+    </row>
+    <row r="34" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
+      <c r="A34" s="19"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
     </row>
     <row r="35" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
       <c r="A35" s="19"/>
@@ -1686,18 +1241,20 @@
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="24" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="F36" s="25">
         <f>SUM(F11:F35)</f>
-        <v>46995</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">
       <c r="A37" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="48"/>
+        <v>20</v>
+      </c>
+      <c r="B37" s="48" t="s">
+        <v>21</v>
+      </c>
       <c r="C37" s="48"/>
       <c r="D37" s="48"/>
       <c r="E37" s="48"/>
@@ -1730,18 +1287,18 @@
     <row r="41" spans="1:6" customHeight="1" ht="16.5">
       <c r="A41" s="3"/>
       <c r="B41" s="60" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C41" s="60"/>
       <c r="D41" s="46" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="E41" s="46"/>
       <c r="F41" s="47"/>
     </row>
     <row r="42" spans="1:6" customHeight="1" ht="15.75">
       <c r="A42" s="4" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="B42" s="61"/>
       <c r="C42" s="61"/>
@@ -1751,28 +1308,28 @@
     </row>
     <row r="43" spans="1:6" customHeight="1" ht="15.75">
       <c r="A43" s="4" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="B43" s="59" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C43" s="59"/>
       <c r="D43" s="44" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="E43" s="44"/>
       <c r="F43" s="45"/>
     </row>
     <row r="44" spans="1:6" customHeight="1" ht="20.25">
       <c r="A44" s="6" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="C44" s="52"/>
       <c r="D44" s="57" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E44" s="57"/>
       <c r="F44" s="58"/>

--- a/export_pr1.xlsx
+++ b/export_pr1.xlsx
@@ -10,7 +10,7 @@
     <sheet name="PR" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -35,10 +35,10 @@
     <t>Office/Section :</t>
   </si>
   <si>
-    <t>ORD</t>
-  </si>
-  <si>
-    <t>PR No.:  2020-0014</t>
+    <t>LGMED</t>
+  </si>
+  <si>
+    <t>PR No.:  2020-03-0160</t>
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
@@ -65,14 +65,14 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>S015</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>Regional Team Conference
-Venue and Meals (Breakfast, AM Snacks, Lunch, PM Snacks)</t>
+    <t>S863</t>
+  </si>
+  <si>
+    <t>pax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meals (AM Snack-Lunch-PM Snacks)
+</t>
   </si>
   <si>
     <t>Total</t>
@@ -81,7 +81,7 @@
     <t>Purpose:</t>
   </si>
   <si>
-    <t xml:space="preserve"> For the conduct of 1st Quarter Regional Team cum Planning Conference      </t>
+    <t>Meeting of the RTF ELCAC</t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -96,7 +96,7 @@
     <t>Printed Name :</t>
   </si>
   <si>
-    <t>ELIAS F. FERNANDEZ, JR.</t>
+    <t>GILBERTO L. TUMAMAC</t>
   </si>
   <si>
     <t>NOEL R. BARTOLABAC, CESO V</t>
@@ -105,7 +105,7 @@
     <t>Designation :</t>
   </si>
   <si>
-    <t>OIC - Regional Director</t>
+    <t>OIC - LGMED Chief</t>
   </si>
   <si>
     <t>Assistant Regional Director</t>
@@ -1034,13 +1034,13 @@
         <v>18</v>
       </c>
       <c r="D11" s="18">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="E11" s="26">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="F11" s="26">
-        <v>60000</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="12" spans="1:6" customHeight="1" ht="30" s="2" customFormat="1">
@@ -1243,9 +1243,9 @@
       <c r="E36" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="25">
+      <c r="F36" s="25" t="str">
         <f>SUM(F11:F35)</f>
-        <v>60000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" customHeight="1" ht="15.75">
